--- a/output/ejecucion_10/gridsearch_results/gs_ca_Regression Forest_st.xlsx
+++ b/output/ejecucion_10/gridsearch_results/gs_ca_Regression Forest_st.xlsx
@@ -501,16 +501,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>106.3614508152008</v>
+        <v>102.8883965969086</v>
       </c>
       <c r="C2">
-        <v>0.4055618749765388</v>
+        <v>0.5536998594166023</v>
       </c>
       <c r="D2">
-        <v>0.1202269554138184</v>
+        <v>0.114240837097168</v>
       </c>
       <c r="E2">
-        <v>0.002938755323364397</v>
+        <v>0.003414075298439932</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -551,16 +551,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>206.9176037311554</v>
+        <v>206.3052350997925</v>
       </c>
       <c r="C3">
-        <v>1.487738197503597</v>
+        <v>1.141106709748807</v>
       </c>
       <c r="D3">
-        <v>0.1552557468414307</v>
+        <v>0.1545533180236816</v>
       </c>
       <c r="E3">
-        <v>0.003668895828964722</v>
+        <v>0.00291998719415114</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -601,16 +601,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>407.7420458316803</v>
+        <v>408.3850501060486</v>
       </c>
       <c r="C4">
-        <v>5.086139906551415</v>
+        <v>2.647254096282601</v>
       </c>
       <c r="D4">
-        <v>0.2427665710449219</v>
+        <v>0.2259729385375976</v>
       </c>
       <c r="E4">
-        <v>0.01563385065690719</v>
+        <v>0.00423511788913709</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -651,16 +651,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>108.7889724254608</v>
+        <v>109.8515606403351</v>
       </c>
       <c r="C5">
-        <v>0.7441042547680123</v>
+        <v>1.194862685899574</v>
       </c>
       <c r="D5">
-        <v>0.116511344909668</v>
+        <v>0.1145430088043213</v>
       </c>
       <c r="E5">
-        <v>0.001134874139512011</v>
+        <v>0.003153655413195153</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -675,7 +675,7 @@
         <v>0.676934084740848</v>
       </c>
       <c r="J5">
-        <v>0.6754392618353844</v>
+        <v>0.6754392618353845</v>
       </c>
       <c r="K5">
         <v>0.6594753028417004</v>
@@ -690,10 +690,10 @@
         <v>0.6618510979566894</v>
       </c>
       <c r="O5">
-        <v>0.01654914630968135</v>
+        <v>0.01654914630968137</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -701,16 +701,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>216.1976108074188</v>
+        <v>217.8333833217621</v>
       </c>
       <c r="C6">
-        <v>2.239725429569325</v>
+        <v>1.725641197964827</v>
       </c>
       <c r="D6">
-        <v>0.158168363571167</v>
+        <v>0.1523622512817383</v>
       </c>
       <c r="E6">
-        <v>0.005761691964548014</v>
+        <v>0.002295502709989406</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -731,7 +731,7 @@
         <v>0.6605156718919509</v>
       </c>
       <c r="L6">
-        <v>0.6608799941668657</v>
+        <v>0.6608799941668658</v>
       </c>
       <c r="M6">
         <v>0.633594415633808</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>425.4224619865417</v>
+        <v>432.084268951416</v>
       </c>
       <c r="C7">
-        <v>3.927502366118259</v>
+        <v>2.348492514026766</v>
       </c>
       <c r="D7">
-        <v>0.2329472541809082</v>
+        <v>0.2207025051116943</v>
       </c>
       <c r="E7">
-        <v>0.005967442139224159</v>
+        <v>0.004804948613758856</v>
       </c>
       <c r="F7">
         <v>20</v>
@@ -775,13 +775,13 @@
         <v>0.6834660021578478</v>
       </c>
       <c r="J7">
-        <v>0.6714420094526867</v>
+        <v>0.6714420094526865</v>
       </c>
       <c r="K7">
         <v>0.661963012425131</v>
       </c>
       <c r="L7">
-        <v>0.6609982364337508</v>
+        <v>0.6609982364337509</v>
       </c>
       <c r="M7">
         <v>0.63289818227488</v>
@@ -790,7 +790,7 @@
         <v>0.6621534885488592</v>
       </c>
       <c r="O7">
-        <v>0.01671971106629336</v>
+        <v>0.01671971106629333</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -801,16 +801,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>107.7133562088013</v>
+        <v>109.8005975246429</v>
       </c>
       <c r="C8">
-        <v>0.7974012769068354</v>
+        <v>1.272267521131406</v>
       </c>
       <c r="D8">
-        <v>0.1155903816223145</v>
+        <v>0.1197622299194336</v>
       </c>
       <c r="E8">
-        <v>0.002959231293751637</v>
+        <v>0.009087286134145197</v>
       </c>
       <c r="F8">
         <v>30</v>
@@ -825,22 +825,22 @@
         <v>0.676934084740848</v>
       </c>
       <c r="J8">
-        <v>0.6754392618353845</v>
+        <v>0.6754392618353844</v>
       </c>
       <c r="K8">
         <v>0.6594753028417004</v>
       </c>
       <c r="L8">
-        <v>0.6661084376468119</v>
+        <v>0.6661084376468118</v>
       </c>
       <c r="M8">
         <v>0.6312984027187022</v>
       </c>
       <c r="N8">
-        <v>0.6618510979566895</v>
+        <v>0.6618510979566894</v>
       </c>
       <c r="O8">
-        <v>0.01654914630968137</v>
+        <v>0.01654914630968135</v>
       </c>
       <c r="P8">
         <v>3</v>
@@ -851,16 +851,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>211.5908124446869</v>
+        <v>216.8430917739868</v>
       </c>
       <c r="C9">
-        <v>1.70497899934483</v>
+        <v>1.770860519163369</v>
       </c>
       <c r="D9">
-        <v>0.1582100868225098</v>
+        <v>0.1585919857025146</v>
       </c>
       <c r="E9">
-        <v>0.007815266346488915</v>
+        <v>0.002275825747586074</v>
       </c>
       <c r="F9">
         <v>30</v>
@@ -881,7 +881,7 @@
         <v>0.6605156718919509</v>
       </c>
       <c r="L9">
-        <v>0.6608799941668657</v>
+        <v>0.6608799941668658</v>
       </c>
       <c r="M9">
         <v>0.633594415633808</v>
@@ -901,16 +901,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>426.57309923172</v>
+        <v>437.2250144004822</v>
       </c>
       <c r="C10">
-        <v>3.147119859997503</v>
+        <v>3.6292806865547</v>
       </c>
       <c r="D10">
-        <v>0.2338485717773438</v>
+        <v>0.2428489685058594</v>
       </c>
       <c r="E10">
-        <v>0.005788261370158021</v>
+        <v>0.01799687899328066</v>
       </c>
       <c r="F10">
         <v>30</v>
@@ -931,7 +931,7 @@
         <v>0.661963012425131</v>
       </c>
       <c r="L10">
-        <v>0.6609982364337508</v>
+        <v>0.6609982364337509</v>
       </c>
       <c r="M10">
         <v>0.63289818227488</v>
@@ -940,7 +940,7 @@
         <v>0.6621534885488592</v>
       </c>
       <c r="O10">
-        <v>0.01671971106629335</v>
+        <v>0.01671971106629334</v>
       </c>
       <c r="P10">
         <v>1</v>
